--- a/biology/Zoologie/Diplocidaridae/Diplocidaridae.xlsx
+++ b/biology/Zoologie/Diplocidaridae/Diplocidaridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplocidaridae sont une famille éteinte d'oursins de l'ordre des Cidaroida.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est arrondi, avec le péristome (bouche) située au centre de la face orale (inférieure) et le périprocte (appareil contenant l'anus et les pores génitaux) à l'opposé, au sommet de la face aborale (supérieure).
-Cette famille se distingue des autres cidaroïdes par ses paires de pores très écartées et séparées par une bande en relief[1].
-Cette famille est apparue au Jurassique inférieur et a disparu au Crétacé inférieur[1].
+Cette famille se distingue des autres cidaroïdes par ses paires de pores très écartées et séparées par une bande en relief.
+Cette famille est apparue au Jurassique inférieur et a disparu au Crétacé inférieur.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 janvier 2021)[2], Paleobiology Database                   (12 janvier 2021)[3] et BioLib                    (12 janvier 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 janvier 2021), Paleobiology Database                   (12 janvier 2021) et BioLib                    (12 janvier 2021) :
 genre Diplocidaris Desor, 1855 †
 genre Tetracidaris Cotteau, 1872 † (inclusion discutée selon l’Echinoid Directory)</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gregory J. W. 1900. « The Echinoidea », pp. 282-332 in E. R. Lankester (ed.) A Treatise on Zoology. A. &amp; C. Black, London.</t>
         </is>
